--- a/medicine/Sexualité et sexologie/Fédération_abolitionniste_internationale/Fédération_abolitionniste_internationale.xlsx
+++ b/medicine/Sexualité et sexologie/Fédération_abolitionniste_internationale/Fédération_abolitionniste_internationale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_abolitionniste_internationale</t>
+          <t>Fédération_abolitionniste_internationale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération abolitionniste internationale (FAI) est une organisation internationale non gouvernementale qui milite pour l'abolitionnisme en matière de prostitution. La FAI a été fondée en 1875 à Genève par Joséphine Butler dans le cadre de son combat contre la réglementation de la prostitution et de la traite dont elle considérait être la conséquence.
 Après avoir animé de nombreuses campagnes nationales et internationales pour sensibiliser l'opinion publique aux conséquences humaines de la prostitution, de son organisation et des trafics qu'elle génère, la FAI est aujourd'hui mise en sommeil.
